--- a/Extracted Excel/IEAINFRA.xlsx
+++ b/Extracted Excel/IEAINFRA.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02-08-2024 03:25:18</t>
+          <t>20-08-2024 00:19:22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02-08-2024 03:25:27</t>
+          <t>20-08-2024 00:19:29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Instructor-Led</t>
+          <t>Do Not Use</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>02-08-2024 03:25:35</t>
+          <t>20-08-2024 00:19:35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>02-08-2024 03:25:43</t>
+          <t>20-08-2024 00:19:42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Do Not Use</t>
+          <t>DO NOT USE Operator Evaluation: Dozer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>02-08-2024 03:25:51</t>
+          <t>20-08-2024 00:19:49</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>02-08-2024 03:25:59</t>
+          <t>20-08-2024 00:19:56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DO NOT USE Operator Evaluation: Dozer</t>
+          <t>DO NOT USE Operator Evaluation: Excavator</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>02-08-2024 03:26:07</t>
+          <t>20-08-2024 00:20:03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DO NOT USE Operator Evaluation: Excavator</t>
+          <t>DO NOT USE Operator Evaluation: Forklift / Lift Truck</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>02-08-2024 03:26:17</t>
+          <t>20-08-2024 00:20:10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DO NOT USE Operator Evaluation: Forklift / Lift Truck</t>
+          <t>Dozer Crawler</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>02-08-2024 03:26:25</t>
+          <t>20-08-2024 00:20:17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dozer Crawler</t>
+          <t>First Aid, CPR, AED &amp; Bloodborne Pathogens</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MMallory_CHST_0125_2018.PNG</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>02-08-2024 03:26:34</t>
+          <t>20-08-2024 00:20:24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>02-08-2024 03:26:44</t>
+          <t>20-08-2024 00:20:31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>First Aid, CPR, AED &amp; Bloodborne Pathogens</t>
+          <t>First Aid/CPR/AED</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>02-08-2024 03:26:53</t>
+          <t>20-08-2024 00:20:38</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>02-08-2024 03:27:19</t>
+          <t>20-08-2024 00:20:45</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>iea-blueprint-rgb.png</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>02-08-2024 03:27:46</t>
+          <t>20-08-2024 00:20:51</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>First Aid/CPR/AED</t>
+          <t>FS - Confined Space Work Activities</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>02-08-2024 03:27:54</t>
+          <t>20-08-2024 00:20:58</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FS - Confined Space Work Activities</t>
+          <t>HSE Civil Orientation</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>02-08-2024 03:28:03</t>
+          <t>20-08-2024 00:21:04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>HSE Civil Orientation</t>
+          <t>HSE Site Specific Orientation</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>02-08-2024 03:28:13</t>
+          <t>20-08-2024 00:21:10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HSE Site Specific Orientation</t>
+          <t>Leadership Matters: Giving Effective Feedback (Never feed someone a sh*t sandwich.)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>02-08-2024 03:28:22</t>
+          <t>20-08-2024 00:21:17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Leadership Matters: Giving Effective Feedback (Never feed someone a sh*t sandwich.)</t>
+          <t>OSHA 10 Hour</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>02-08-2024 03:28:33</t>
+          <t>20-08-2024 00:21:24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>02-08-2024 03:28:41</t>
+          <t>20-08-2024 00:21:31</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>OSHA 10 Hour</t>
+          <t>RESPRITORY FIT TEST</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>02-08-2024 03:28:49</t>
+          <t>20-08-2024 00:21:37</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RESPRITORY FIT TEST</t>
+          <t>Rigging Institute Assembly/Disassembly</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>02-08-2024 03:28:57</t>
+          <t>20-08-2024 00:21:44</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rigging Institute Assembly/Disassembly</t>
+          <t>Skid Steer Operator Evaluation</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>02-08-2024 03:29:05</t>
+          <t>20-08-2024 00:21:50</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skid Steer Operator Evaluation</t>
+          <t>Test Course</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>02-08-2024 03:29:13</t>
+          <t>20-08-2024 00:21:57</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Test Course</t>
+          <t>Training Acknowledgement: JSA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>02-08-2024 03:30:07</t>
+          <t>20-08-2024 00:22:50</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>02-08-2024 03:30:15</t>
+          <t>20-08-2024 00:22:57</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Instructor-Led</t>
+          <t>First Aid, CPR, AED &amp; Bloodborne Pathogens</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>02-08-2024 03:30:22</t>
+          <t>20-08-2024 00:23:04</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>02-08-2024 03:30:31</t>
+          <t>20-08-2024 00:23:09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>First Aid, CPR, AED &amp; Bloodborne Pathogens</t>
+          <t>First Aid/CPR/AED</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>02-08-2024 03:30:40</t>
+          <t>20-08-2024 00:23:24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>02-08-2024 03:30:48</t>
+          <t>20-08-2024 00:23:39</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>02-08-2024 03:31:13</t>
+          <t>20-08-2024 00:23:45</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>First Aid/CPR/AED</t>
+          <t>High Angle Rescue</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>02-08-2024 03:31:21</t>
+          <t>20-08-2024 00:23:52</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>02-08-2024 03:31:45</t>
+          <t>20-08-2024 00:23:58</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Instructor-Led</t>
+          <t>Training Acknowledgement: JSA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">

--- a/Extracted Excel/IEAINFRA.xlsx
+++ b/Extracted Excel/IEAINFRA.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -1992,9 +1992,1492 @@
         </is>
       </c>
     </row>
-    <row r="35"/>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:46:06</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Blueprint HSE Config and Training</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
     <row r="36">
-      <c r="F36" s="2" t="n"/>
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:46:12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Do Not Use</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:46:18</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Do Not Use</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:46:24</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>DO NOT USE Operator Evaluation: Dozer</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:46:30</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>DO NOT USE Operator Evaluation: Dozer</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:46:36</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>DO NOT USE Operator Evaluation: Excavator</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:46:42</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>DO NOT USE Operator Evaluation: Forklift / Lift Truck</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>8</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:46:49</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Dozer Crawler</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:47:03</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>First Aid, CPR, AED &amp; Bloodborne Pathogens</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>MMallory_CHST_0125_2018.PNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:47:10</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>First Aid, CPR, AED &amp; Bloodborne Pathogens</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:47:25</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>First Aid/CPR/AED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>iea-blueprint-rgb.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>12</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:47:32</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>First Aid/CPR/AED</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>13</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:47:46</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>First Aid/CPR/AED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>iea-blueprint-rgb.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>14</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:47:53</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>FS - Confined Space Work Activities</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>15</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:48:00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>HSE Civil Orientation</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>16</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:48:14</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>HSE Site Specific Orientation</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>hardhat.PNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>17</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:48:21</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Leadership Matters: Giving Effective Feedback (Never feed someone a sh*t sandwich.)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>18</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:48:28</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>OSHA 10 Hour</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>19</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:48:34</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>OSHA 10 Hour</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:48:40</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>RESPRITORY FIT TEST</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>21</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:48:47</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Rigging Institute Assembly/Disassembly</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>22</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:48:53</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Skid Steer Operator Evaluation</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>23</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:48:59</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Test Course</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>24</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:49:05</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003502%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Blueprint at IEA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>BLUEPRINT@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Training Acknowledgement: JSA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>25</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:49:57</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003503%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>HSE Training</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>HSETRAINING@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Blueprint HSE Config and Training</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>26</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:50:03</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003503%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>HSE Training</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>HSETRAINING@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>First Aid, CPR, AED &amp; Bloodborne Pathogens</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>27</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:50:09</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003503%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>HSE Training</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>HSETRAINING@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>First Aid, CPR, AED &amp; Bloodborne Pathogens</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>28</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:50:24</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003503%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>HSE Training</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>HSETRAINING@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>First Aid/CPR/AED</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>iea-blueprint-rgb.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>29</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:50:31</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003503%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>HSE Training</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>HSETRAINING@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>First Aid/CPR/AED</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>30</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:50:37</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003503%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>HSE Training</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>HSETRAINING@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>First Aid/CPR/AED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:50:43</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003503%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>HSE Training</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>HSETRAINING@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>High Angle Rescue</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:50:49</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003503%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>HSE Training</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>HSETRAINING@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>High Angle Rescue</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>26-08-2024 22:50:55</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000003503%2ForgAdmin%2Fbisut000000000003200%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>HSE Training</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>HSETRAINING@IEA.NET</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Training Acknowledgement: JSA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
